--- a/Environment/original_implementations/sCMAgES/Result_Record/sCMAgESr_temp.xlsx
+++ b/Environment/original_implementations/sCMAgES/Result_Record/sCMAgESr_temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Downloads\PDI1\Environment\original_implementations\sCMAgES\Result_Record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\Inzynierka\CEC2020-Algorithms\Environment\original_implementations\sCMAgES\Result_Record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276347E9-270E-4563-A941-BB83C07CE54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA9CA3-3A6D-4271-942D-3533CC127462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
